--- a/biology/Médecine/Capsulotomie/Capsulotomie.xlsx
+++ b/biology/Médecine/Capsulotomie/Capsulotomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capsulotomie est le traitement d'une cataracte secondaire, opacification de la capsule du cristallin réduisant l'acuité visuelle. La capsulotomie est généralement effectuée à l'aide d'un laser YAG, qui améliore la vision, tout en laissant en place la capsule du cristallin.
 </t>
@@ -511,9 +523,11 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette opacification capsulaire se produit dans un pourcentage assez élevé (environ 30 % des cas) au cours des années qui suivent une chirurgie de la cataracte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette opacification capsulaire se produit dans un pourcentage assez élevé (environ 30 % des cas) au cours des années qui suivent une chirurgie de la cataracte.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le traitement de cette affection par laser comporte certains avantages pour le patient :
 hospitalisation : intervention en mode externe (ambulatoire), le patient peut donc regagner son domicile dès l'intervention terminée ;
@@ -576,9 +592,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'évolution post-opératoire est généralement satisfaisante : la récupération visuelle est rapide et les soins sont réduits[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évolution post-opératoire est généralement satisfaisante : la récupération visuelle est rapide et les soins sont réduits.
 Les complications de la capsulotomie au Laser YAG sont réduites au minimum mais peuvent toutefois comporter :
 malaise ;
 inflammation oculaire modérée ;
@@ -615,9 +633,11 @@
           <t>Traitements post-laser</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe pas de recommandation officielle de traitement post-laser. Cependant il est d'usage d'instiller un collyre anti-inflammatoire non stéroïdien ou stéroïdien pendant 7 à 15 jours afin de limiter les inflammations sans preuve scientifique réelle[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas de recommandation officielle de traitement post-laser. Cependant il est d'usage d'instiller un collyre anti-inflammatoire non stéroïdien ou stéroïdien pendant 7 à 15 jours afin de limiter les inflammations sans preuve scientifique réelle.
 </t>
         </is>
       </c>
